--- a/21010611_TranMinhTien_m2.xlsx
+++ b/21010611_TranMinhTien_m2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\TranMinhTien\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Bài 1" sheetId="1" r:id="rId1"/>
@@ -3476,297 +3476,6 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3787,15 +3496,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3804,8 +3504,308 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3845,7 +3845,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{168C7A53-837C-4A04-B380-E24E9D178C4E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{168C7A53-837C-4A04-B380-E24E9D178C4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3903,7 +3903,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56409CF9-13A3-49A2-9F72-C1B952BDE4D8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56409CF9-13A3-49A2-9F72-C1B952BDE4D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3947,7 +3947,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74FBF3C3-9EB8-42CC-8A9C-E81388086670}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74FBF3C3-9EB8-42CC-8A9C-E81388086670}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3996,7 +3996,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8431964-2BB8-474C-B1DD-0C42D0D32A54}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8431964-2BB8-474C-B1DD-0C42D0D32A54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4049,7 +4049,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B6FA64B0-1CAF-457F-A05F-ED6A98AF864F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6FA64B0-1CAF-457F-A05F-ED6A98AF864F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4093,7 +4093,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39A74911-C8A4-459C-9E1D-06DE00DE8F95}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A74911-C8A4-459C-9E1D-06DE00DE8F95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4142,7 +4142,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F81AFB7B-7FFE-4FFD-983C-FD1172E2A2DD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F81AFB7B-7FFE-4FFD-983C-FD1172E2A2DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4191,7 +4191,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{468FEDBF-1804-41C2-9C41-61511D40AD66}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468FEDBF-1804-41C2-9C41-61511D40AD66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4240,7 +4240,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{928A8248-541C-4BDA-B28F-A5A4EE8DD2EF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{928A8248-541C-4BDA-B28F-A5A4EE8DD2EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4289,7 +4289,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43C378E1-8C79-4A3B-9666-ABDE05BD12A5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C378E1-8C79-4A3B-9666-ABDE05BD12A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4333,7 +4333,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D97342A-18FE-43E1-BAEE-AB12B651C83A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D97342A-18FE-43E1-BAEE-AB12B651C83A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4382,7 +4382,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E647260-4DEA-4D36-A30C-1AA2F9FD232E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E647260-4DEA-4D36-A30C-1AA2F9FD232E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4431,7 +4431,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{648D0D9A-17B0-4DC3-A99A-D3882C16F829}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{648D0D9A-17B0-4DC3-A99A-D3882C16F829}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4480,7 +4480,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3735140-AEF7-4D9E-A56E-DB06FF401AA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3735140-AEF7-4D9E-A56E-DB06FF401AA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4529,7 +4529,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{358BE6A5-8AF8-46C2-97A4-7F193DB5F58C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{358BE6A5-8AF8-46C2-97A4-7F193DB5F58C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4578,7 +4578,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{247DD5CA-8C00-47C5-BE79-87E152FF8169}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247DD5CA-8C00-47C5-BE79-87E152FF8169}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4627,7 +4627,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{424A1515-EE16-426A-B47C-35EDF04AFAC6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424A1515-EE16-426A-B47C-35EDF04AFAC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4671,7 +4671,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{612D87FF-255E-4550-AA27-37D38C0E012A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{612D87FF-255E-4550-AA27-37D38C0E012A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4712,7 +4712,7 @@
             <xdr:cNvPr id="4" name="TextBox 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18A27DE0-5B76-4424-B10E-B130B16EE674}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A27DE0-5B76-4424-B10E-B130B16EE674}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4894,7 +4894,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18E273AF-2B0C-48B3-B077-652854DD13FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E273AF-2B0C-48B3-B077-652854DD13FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4943,7 +4943,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77747CFC-5D36-46D1-B1B0-A043D9772D5F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77747CFC-5D36-46D1-B1B0-A043D9772D5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4987,7 +4987,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9759025A-96F6-45DD-BA81-DDDA7590A0A5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9759025A-96F6-45DD-BA81-DDDA7590A0A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5036,7 +5036,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4FA464CB-34D6-446A-83D3-667BB65A9611}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA464CB-34D6-446A-83D3-667BB65A9611}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="F23" s="72"/>
       <c r="G23" s="343"/>
-      <c r="H23" s="342"/>
+      <c r="H23" s="346"/>
       <c r="I23" s="343"/>
       <c r="J23" s="343"/>
       <c r="K23" s="343"/>
@@ -5427,20 +5427,20 @@
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A24" s="347" t="s">
+      <c r="A24" s="340" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="350" t="s">
+      <c r="C24" s="344" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="65"/>
       <c r="E24" s="58"/>
       <c r="F24" s="5"/>
       <c r="G24" s="343"/>
-      <c r="H24" s="342"/>
+      <c r="H24" s="346"/>
       <c r="I24" s="73"/>
       <c r="J24" s="74"/>
       <c r="K24" s="73"/>
@@ -5448,15 +5448,15 @@
       <c r="M24" s="67"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="348"/>
+      <c r="A25" s="341"/>
       <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="351"/>
+      <c r="C25" s="345"/>
       <c r="D25" s="65"/>
       <c r="E25" s="58"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="344"/>
+      <c r="G25" s="347"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
@@ -5465,19 +5465,19 @@
       <c r="M25" s="68"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="347" t="s">
+      <c r="A26" s="340" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="350" t="s">
+      <c r="C26" s="344" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="65"/>
       <c r="E26" s="58"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="344"/>
+      <c r="G26" s="347"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -5486,15 +5486,15 @@
       <c r="M26" s="68"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="348"/>
+      <c r="A27" s="341"/>
       <c r="B27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="351"/>
+      <c r="C27" s="345"/>
       <c r="D27" s="65"/>
       <c r="E27" s="58"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="344"/>
+      <c r="G27" s="347"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -5503,13 +5503,13 @@
       <c r="M27" s="68"/>
     </row>
     <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="347" t="s">
+      <c r="A28" s="340" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="336" t="s">
+      <c r="B28" s="356" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="338" t="s">
+      <c r="C28" s="358" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="66" t="s">
@@ -5519,7 +5519,7 @@
         <v>143</v>
       </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="344"/>
+      <c r="G28" s="347"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -5528,15 +5528,15 @@
       <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="349"/>
-      <c r="B29" s="337"/>
-      <c r="C29" s="339"/>
+      <c r="A29" s="342"/>
+      <c r="B29" s="357"/>
+      <c r="C29" s="359"/>
       <c r="D29" s="66" t="s">
         <v>140</v>
       </c>
       <c r="E29" s="59"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="344"/>
+      <c r="G29" s="347"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
@@ -5545,11 +5545,11 @@
       <c r="M29" s="69"/>
     </row>
     <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="349"/>
-      <c r="B30" s="340" t="s">
+      <c r="A30" s="342"/>
+      <c r="B30" s="360" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="338" t="s">
+      <c r="C30" s="358" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="66" t="s">
@@ -5559,7 +5559,7 @@
         <v>144</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="344"/>
+      <c r="G30" s="347"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -5568,15 +5568,15 @@
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="349"/>
-      <c r="B31" s="341"/>
-      <c r="C31" s="339"/>
+      <c r="A31" s="342"/>
+      <c r="B31" s="361"/>
+      <c r="C31" s="359"/>
       <c r="D31" s="66" t="s">
         <v>142</v>
       </c>
       <c r="E31" s="59"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="344"/>
+      <c r="G31" s="347"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
@@ -5585,7 +5585,7 @@
       <c r="M31" s="69"/>
     </row>
     <row r="32" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="348"/>
+      <c r="A32" s="341"/>
       <c r="B32" s="76"/>
       <c r="C32" s="53" t="s">
         <v>16</v>
@@ -5593,7 +5593,7 @@
       <c r="D32" s="65"/>
       <c r="E32" s="58"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="344"/>
+      <c r="G32" s="347"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
@@ -5602,7 +5602,7 @@
       <c r="M32" s="69"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="347" t="s">
+      <c r="A33" s="340" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="76" t="s">
@@ -5618,7 +5618,7 @@
         <v>145</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="344"/>
+      <c r="G33" s="347"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
@@ -5627,7 +5627,7 @@
       <c r="M33" s="69"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="349"/>
+      <c r="A34" s="342"/>
       <c r="B34" s="76" t="s">
         <v>19</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>146</v>
       </c>
       <c r="F34" s="5"/>
-      <c r="G34" s="344"/>
+      <c r="G34" s="347"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
@@ -5650,7 +5650,7 @@
       <c r="M34" s="69"/>
     </row>
     <row r="35" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A35" s="349"/>
+      <c r="A35" s="342"/>
       <c r="B35" s="76" t="s">
         <v>20</v>
       </c>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="E35" s="59"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="344"/>
+      <c r="G35" s="347"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
@@ -5671,7 +5671,7 @@
       <c r="M35" s="69"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="349"/>
+      <c r="A36" s="342"/>
       <c r="B36" s="3"/>
       <c r="C36" s="53"/>
       <c r="D36" s="59" t="s">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="E36" s="58"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="344"/>
+      <c r="G36" s="347"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
@@ -5688,7 +5688,7 @@
       <c r="M36" s="69"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="348"/>
+      <c r="A37" s="341"/>
       <c r="B37" s="56"/>
       <c r="C37" s="56"/>
       <c r="D37" s="59" t="s">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="E37" s="58"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="344"/>
+      <c r="G37" s="347"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
@@ -5718,23 +5718,23 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="63"/>
-      <c r="B42" s="345" t="s">
+      <c r="B42" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="346" t="s">
+      <c r="C42" s="349" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="345" t="s">
+      <c r="D42" s="348" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="345"/>
-      <c r="F42" s="345"/>
-      <c r="G42" s="345"/>
+      <c r="E42" s="348"/>
+      <c r="F42" s="348"/>
+      <c r="G42" s="348"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="B43" s="345"/>
-      <c r="C43" s="346"/>
+      <c r="B43" s="348"/>
+      <c r="C43" s="349"/>
       <c r="D43" s="9" t="s">
         <v>9</v>
       </c>
@@ -5752,7 +5752,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="330" t="s">
+      <c r="B44" s="350" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="2">
@@ -5775,7 +5775,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="331"/>
+      <c r="B45" s="351"/>
       <c r="C45" s="2">
         <v>2</v>
       </c>
@@ -5796,7 +5796,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="332"/>
+      <c r="B46" s="352"/>
       <c r="C46" s="2">
         <v>3</v>
       </c>
@@ -5817,7 +5817,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="333" t="s">
+      <c r="B47" s="353" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="2">
@@ -5840,7 +5840,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="334"/>
+      <c r="B48" s="354"/>
       <c r="C48" s="2">
         <v>2</v>
       </c>
@@ -5861,7 +5861,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="334"/>
+      <c r="B49" s="354"/>
       <c r="C49" s="2">
         <v>3</v>
       </c>
@@ -5882,7 +5882,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="334"/>
+      <c r="B50" s="354"/>
       <c r="C50" s="2">
         <v>4</v>
       </c>
@@ -5903,7 +5903,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="334"/>
+      <c r="B51" s="354"/>
       <c r="C51" s="2">
         <v>5</v>
       </c>
@@ -5924,7 +5924,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="334"/>
+      <c r="B52" s="354"/>
       <c r="C52" s="2">
         <v>6</v>
       </c>
@@ -5945,7 +5945,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="334"/>
+      <c r="B53" s="354"/>
       <c r="C53" s="2">
         <v>7</v>
       </c>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
-      <c r="B54" s="334"/>
+      <c r="B54" s="354"/>
       <c r="C54" s="2">
         <v>8</v>
       </c>
@@ -5989,7 +5989,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
-      <c r="B55" s="334"/>
+      <c r="B55" s="354"/>
       <c r="C55" s="2">
         <v>9</v>
       </c>
@@ -6011,7 +6011,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
-      <c r="B56" s="334"/>
+      <c r="B56" s="354"/>
       <c r="C56" s="2">
         <v>10</v>
       </c>
@@ -6033,7 +6033,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="334"/>
+      <c r="B57" s="354"/>
       <c r="C57" s="2">
         <v>11</v>
       </c>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
-      <c r="B58" s="335"/>
+      <c r="B58" s="355"/>
       <c r="C58" s="2">
         <v>12</v>
       </c>
@@ -6344,6 +6344,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B58"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G28:G37"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:G42"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A32"/>
@@ -6351,19 +6364,6 @@
     <mergeCell ref="A33:A37"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="G28:G37"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B58"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6497,24 +6497,24 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="409" t="s">
+      <c r="A41" s="423" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="409" t="s">
+      <c r="B41" s="423" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="410" t="s">
+      <c r="C41" s="424" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="410"/>
-      <c r="E41" s="410"/>
-      <c r="F41" s="409" t="s">
+      <c r="D41" s="424"/>
+      <c r="E41" s="424"/>
+      <c r="F41" s="423" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="409"/>
-      <c r="B42" s="409"/>
+      <c r="A42" s="423"/>
+      <c r="B42" s="423"/>
       <c r="C42" s="145" t="s">
         <v>226</v>
       </c>
@@ -6524,7 +6524,7 @@
       <c r="E42" s="145" t="s">
         <v>233</v>
       </c>
-      <c r="F42" s="409"/>
+      <c r="F42" s="423"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="197" t="s">
@@ -7092,10 +7092,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="411" t="s">
+      <c r="A14" s="425" t="s">
         <v>286</v>
       </c>
-      <c r="B14" s="414" t="s">
+      <c r="B14" s="428" t="s">
         <v>284</v>
       </c>
       <c r="C14" s="158" t="s">
@@ -7103,29 +7103,29 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="412"/>
-      <c r="B15" s="415"/>
+      <c r="A15" s="426"/>
+      <c r="B15" s="429"/>
       <c r="C15" s="158" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="412"/>
-      <c r="B16" s="415"/>
+      <c r="A16" s="426"/>
+      <c r="B16" s="429"/>
       <c r="C16" s="158" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="412"/>
-      <c r="B17" s="415"/>
+      <c r="A17" s="426"/>
+      <c r="B17" s="429"/>
       <c r="C17" s="193" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="413"/>
-      <c r="B18" s="416"/>
+      <c r="A18" s="427"/>
+      <c r="B18" s="430"/>
       <c r="C18" s="193" t="s">
         <v>283</v>
       </c>
@@ -7312,7 +7312,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="418" t="s">
+      <c r="A19" s="432" t="s">
         <v>116</v>
       </c>
       <c r="B19" s="147" t="s">
@@ -7323,7 +7323,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="419"/>
+      <c r="A20" s="433"/>
       <c r="B20" s="147" t="s">
         <v>306</v>
       </c>
@@ -7332,24 +7332,24 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="419"/>
+      <c r="A21" s="433"/>
       <c r="B21" s="147"/>
       <c r="C21" s="147" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="420"/>
+      <c r="A22" s="434"/>
       <c r="B22" s="147"/>
       <c r="C22" s="216" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="418" t="s">
+      <c r="A23" s="432" t="s">
         <v>302</v>
       </c>
-      <c r="B23" s="417" t="s">
+      <c r="B23" s="431" t="s">
         <v>432</v>
       </c>
       <c r="C23" s="187" t="s">
@@ -7357,29 +7357,29 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="419"/>
-      <c r="B24" s="417"/>
+      <c r="A24" s="433"/>
+      <c r="B24" s="431"/>
       <c r="C24" s="147" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="419"/>
-      <c r="B25" s="417"/>
+      <c r="A25" s="433"/>
+      <c r="B25" s="431"/>
       <c r="C25" s="216" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="419"/>
-      <c r="B26" s="417"/>
+      <c r="A26" s="433"/>
+      <c r="B26" s="431"/>
       <c r="C26" s="216" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="420"/>
-      <c r="B27" s="417"/>
+      <c r="A27" s="434"/>
+      <c r="B27" s="431"/>
       <c r="C27" s="216" t="s">
         <v>304</v>
       </c>
@@ -7680,7 +7680,7 @@
       <c r="A25" s="230" t="s">
         <v>324</v>
       </c>
-      <c r="B25" s="421" t="s">
+      <c r="B25" s="435" t="s">
         <v>325</v>
       </c>
       <c r="C25" s="166" t="s">
@@ -7689,28 +7689,28 @@
     </row>
     <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="229"/>
-      <c r="B26" s="422"/>
+      <c r="B26" s="436"/>
       <c r="C26" s="166" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="229"/>
-      <c r="B27" s="422"/>
+      <c r="B27" s="436"/>
       <c r="C27" s="166" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="229"/>
-      <c r="B28" s="422"/>
+      <c r="B28" s="436"/>
       <c r="C28" s="166" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="229"/>
-      <c r="B29" s="423"/>
+      <c r="B29" s="437"/>
       <c r="C29" s="139" t="s">
         <v>183</v>
       </c>
@@ -7719,7 +7719,7 @@
       <c r="A30" s="229" t="s">
         <v>327</v>
       </c>
-      <c r="B30" s="421" t="s">
+      <c r="B30" s="435" t="s">
         <v>328</v>
       </c>
       <c r="C30" s="139" t="s">
@@ -7728,21 +7728,21 @@
     </row>
     <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="229"/>
-      <c r="B31" s="422"/>
+      <c r="B31" s="436"/>
       <c r="C31" s="166" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="229"/>
-      <c r="B32" s="422"/>
+      <c r="B32" s="436"/>
       <c r="C32" s="166" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="88"/>
-      <c r="B33" s="423"/>
+      <c r="B33" s="437"/>
       <c r="C33" s="139" t="s">
         <v>183</v>
       </c>
@@ -8702,50 +8702,50 @@
       <c r="J55" s="244"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="426" t="s">
+      <c r="A56" s="440" t="s">
         <v>389</v>
       </c>
-      <c r="B56" s="424" t="s">
+      <c r="B56" s="438" t="s">
         <v>390</v>
       </c>
-      <c r="C56" s="424" t="s">
+      <c r="C56" s="438" t="s">
         <v>391</v>
       </c>
-      <c r="D56" s="424" t="s">
+      <c r="D56" s="438" t="s">
         <v>392</v>
       </c>
-      <c r="E56" s="424" t="s">
+      <c r="E56" s="438" t="s">
         <v>393</v>
       </c>
-      <c r="F56" s="424" t="s">
+      <c r="F56" s="438" t="s">
         <v>394</v>
       </c>
-      <c r="G56" s="424" t="s">
+      <c r="G56" s="438" t="s">
         <v>395</v>
       </c>
-      <c r="H56" s="424" t="s">
+      <c r="H56" s="438" t="s">
         <v>396</v>
       </c>
-      <c r="I56" s="424" t="s">
+      <c r="I56" s="438" t="s">
         <v>397</v>
       </c>
-      <c r="J56" s="424" t="s">
+      <c r="J56" s="438" t="s">
         <v>398</v>
       </c>
       <c r="K56" s="200"/>
       <c r="L56" s="200"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="426"/>
-      <c r="B57" s="424"/>
-      <c r="C57" s="424"/>
-      <c r="D57" s="424"/>
-      <c r="E57" s="424"/>
-      <c r="F57" s="424"/>
-      <c r="G57" s="424"/>
-      <c r="H57" s="424"/>
-      <c r="I57" s="424"/>
-      <c r="J57" s="424"/>
+      <c r="A57" s="440"/>
+      <c r="B57" s="438"/>
+      <c r="C57" s="438"/>
+      <c r="D57" s="438"/>
+      <c r="E57" s="438"/>
+      <c r="F57" s="438"/>
+      <c r="G57" s="438"/>
+      <c r="H57" s="438"/>
+      <c r="I57" s="438"/>
+      <c r="J57" s="438"/>
       <c r="L57" s="200"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -9055,18 +9055,18 @@
       <c r="L66" s="200"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="425" t="s">
+      <c r="A67" s="439" t="s">
         <v>410</v>
       </c>
-      <c r="B67" s="425"/>
-      <c r="C67" s="425"/>
-      <c r="D67" s="425"/>
-      <c r="E67" s="425"/>
-      <c r="F67" s="425"/>
-      <c r="G67" s="425"/>
-      <c r="H67" s="425"/>
-      <c r="I67" s="425"/>
-      <c r="J67" s="425"/>
+      <c r="B67" s="439"/>
+      <c r="C67" s="439"/>
+      <c r="D67" s="439"/>
+      <c r="E67" s="439"/>
+      <c r="F67" s="439"/>
+      <c r="G67" s="439"/>
+      <c r="H67" s="439"/>
+      <c r="I67" s="439"/>
+      <c r="J67" s="439"/>
       <c r="K67" s="200"/>
       <c r="L67" s="200"/>
     </row>
@@ -9460,10 +9460,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="357" t="s">
+      <c r="A31" s="367" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="350" t="s">
+      <c r="B31" s="344" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="53" t="s">
@@ -9473,8 +9473,8 @@
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="358"/>
-      <c r="B32" s="354"/>
+      <c r="A32" s="368"/>
+      <c r="B32" s="364"/>
       <c r="C32" s="53" t="s">
         <v>50</v>
       </c>
@@ -9482,8 +9482,8 @@
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="358"/>
-      <c r="B33" s="354"/>
+      <c r="A33" s="368"/>
+      <c r="B33" s="364"/>
       <c r="C33" s="53" t="s">
         <v>75</v>
       </c>
@@ -9491,8 +9491,8 @@
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="358"/>
-      <c r="B34" s="354"/>
+      <c r="A34" s="368"/>
+      <c r="B34" s="364"/>
       <c r="C34" s="53" t="s">
         <v>76</v>
       </c>
@@ -9500,8 +9500,8 @@
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="358"/>
-      <c r="B35" s="354"/>
+      <c r="A35" s="368"/>
+      <c r="B35" s="364"/>
       <c r="C35" s="53" t="s">
         <v>77</v>
       </c>
@@ -9509,8 +9509,8 @@
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="359"/>
-      <c r="B36" s="351"/>
+      <c r="A36" s="369"/>
+      <c r="B36" s="345"/>
       <c r="C36" s="53" t="s">
         <v>59</v>
       </c>
@@ -9518,10 +9518,10 @@
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="360" t="s">
+      <c r="A37" s="370" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="350" t="s">
+      <c r="B37" s="344" t="s">
         <v>78</v>
       </c>
       <c r="C37" s="53" t="s">
@@ -9535,8 +9535,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="361"/>
-      <c r="B38" s="354"/>
+      <c r="A38" s="371"/>
+      <c r="B38" s="364"/>
       <c r="C38" s="53" t="s">
         <v>53</v>
       </c>
@@ -9548,8 +9548,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="361"/>
-      <c r="B39" s="354"/>
+      <c r="A39" s="371"/>
+      <c r="B39" s="364"/>
       <c r="C39" s="53" t="s">
         <v>79</v>
       </c>
@@ -9557,8 +9557,8 @@
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="361"/>
-      <c r="B40" s="354"/>
+      <c r="A40" s="371"/>
+      <c r="B40" s="364"/>
       <c r="C40" s="53" t="s">
         <v>80</v>
       </c>
@@ -9566,8 +9566,8 @@
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="362"/>
-      <c r="B41" s="351"/>
+      <c r="A41" s="372"/>
+      <c r="B41" s="345"/>
       <c r="C41" s="53" t="s">
         <v>59</v>
       </c>
@@ -9575,10 +9575,10 @@
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="357" t="s">
+      <c r="A42" s="367" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="350" t="s">
+      <c r="B42" s="344" t="s">
         <v>81</v>
       </c>
       <c r="C42" s="53" t="s">
@@ -9588,8 +9588,8 @@
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="359"/>
-      <c r="B43" s="351"/>
+      <c r="A43" s="369"/>
+      <c r="B43" s="345"/>
       <c r="C43" s="53" t="s">
         <v>59</v>
       </c>
@@ -9597,10 +9597,10 @@
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="357" t="s">
+      <c r="A44" s="367" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="347" t="s">
+      <c r="B44" s="340" t="s">
         <v>56</v>
       </c>
       <c r="C44" s="53" t="s">
@@ -9610,8 +9610,8 @@
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="358"/>
-      <c r="B45" s="349"/>
+      <c r="A45" s="368"/>
+      <c r="B45" s="342"/>
       <c r="C45" s="53" t="s">
         <v>57</v>
       </c>
@@ -9619,8 +9619,8 @@
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="358"/>
-      <c r="B46" s="349"/>
+      <c r="A46" s="368"/>
+      <c r="B46" s="342"/>
       <c r="C46" s="53" t="s">
         <v>84</v>
       </c>
@@ -9628,8 +9628,8 @@
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="358"/>
-      <c r="B47" s="349"/>
+      <c r="A47" s="368"/>
+      <c r="B47" s="342"/>
       <c r="C47" s="53" t="s">
         <v>83</v>
       </c>
@@ -9637,8 +9637,8 @@
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="359"/>
-      <c r="B48" s="348"/>
+      <c r="A48" s="369"/>
+      <c r="B48" s="341"/>
       <c r="C48" s="53" t="s">
         <v>59</v>
       </c>
@@ -9662,23 +9662,23 @@
       <c r="E52" s="15"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="352" t="s">
+      <c r="A53" s="362" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="355" t="s">
+      <c r="B53" s="365" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="352" t="s">
+      <c r="C53" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="352"/>
-      <c r="E53" s="352"/>
-      <c r="F53" s="352"/>
+      <c r="D53" s="362"/>
+      <c r="E53" s="362"/>
+      <c r="F53" s="362"/>
       <c r="G53" s="30"/>
     </row>
     <row r="54" spans="1:7" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="352"/>
-      <c r="B54" s="355"/>
+      <c r="A54" s="362"/>
+      <c r="B54" s="365"/>
       <c r="C54" s="31" t="s">
         <v>85</v>
       </c>
@@ -9719,7 +9719,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="356" t="s">
+      <c r="A56" s="366" t="s">
         <v>33</v>
       </c>
       <c r="B56" s="31">
@@ -9742,7 +9742,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="356"/>
+      <c r="A57" s="366"/>
       <c r="B57" s="31">
         <v>3</v>
       </c>
@@ -9763,7 +9763,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="356"/>
+      <c r="A58" s="366"/>
       <c r="B58" s="31">
         <v>4</v>
       </c>
@@ -9784,7 +9784,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="356"/>
+      <c r="A59" s="366"/>
       <c r="B59" s="31">
         <v>5</v>
       </c>
@@ -9805,7 +9805,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="356"/>
+      <c r="A60" s="366"/>
       <c r="B60" s="31">
         <v>6</v>
       </c>
@@ -9826,7 +9826,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="356"/>
+      <c r="A61" s="366"/>
       <c r="B61" s="31">
         <v>7</v>
       </c>
@@ -9847,7 +9847,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="356"/>
+      <c r="A62" s="366"/>
       <c r="B62" s="31">
         <v>8</v>
       </c>
@@ -9868,7 +9868,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="356"/>
+      <c r="A63" s="366"/>
       <c r="B63" s="31">
         <v>9</v>
       </c>
@@ -9889,7 +9889,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="356"/>
+      <c r="A64" s="366"/>
       <c r="B64" s="31">
         <v>10</v>
       </c>
@@ -9910,7 +9910,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="356"/>
+      <c r="A65" s="366"/>
       <c r="B65" s="31">
         <v>11</v>
       </c>
@@ -9931,7 +9931,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="356"/>
+      <c r="A66" s="366"/>
       <c r="B66" s="31">
         <v>12</v>
       </c>
@@ -9952,7 +9952,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="356"/>
+      <c r="A67" s="366"/>
       <c r="B67" s="31">
         <v>13</v>
       </c>
@@ -9973,7 +9973,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="356"/>
+      <c r="A68" s="366"/>
       <c r="B68" s="31">
         <v>14</v>
       </c>
@@ -9994,7 +9994,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="356"/>
+      <c r="A69" s="366"/>
       <c r="B69" s="31">
         <v>15</v>
       </c>
@@ -10015,7 +10015,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="356"/>
+      <c r="A70" s="366"/>
       <c r="B70" s="31">
         <v>16</v>
       </c>
@@ -10036,7 +10036,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="356"/>
+      <c r="A71" s="366"/>
       <c r="B71" s="31">
         <v>17</v>
       </c>
@@ -10057,7 +10057,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="356"/>
+      <c r="A72" s="366"/>
       <c r="B72" s="31">
         <v>18</v>
       </c>
@@ -10078,7 +10078,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="356"/>
+      <c r="A73" s="366"/>
       <c r="B73" s="31">
         <v>19</v>
       </c>
@@ -10099,7 +10099,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="356"/>
+      <c r="A74" s="366"/>
       <c r="B74" s="31">
         <v>20</v>
       </c>
@@ -10120,7 +10120,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="356"/>
+      <c r="A75" s="366"/>
       <c r="B75" s="31">
         <v>21</v>
       </c>
@@ -10141,7 +10141,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="356"/>
+      <c r="A76" s="366"/>
       <c r="B76" s="31">
         <v>22</v>
       </c>
@@ -10162,7 +10162,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="356"/>
+      <c r="A77" s="366"/>
       <c r="B77" s="31">
         <v>23</v>
       </c>
@@ -10183,7 +10183,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="356"/>
+      <c r="A78" s="366"/>
       <c r="B78" s="31">
         <v>24</v>
       </c>
@@ -10204,7 +10204,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="356"/>
+      <c r="A79" s="366"/>
       <c r="B79" s="31">
         <v>25</v>
       </c>
@@ -10234,7 +10234,7 @@
       <c r="G80" s="27"/>
     </row>
     <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="353"/>
+      <c r="A81" s="363"/>
       <c r="B81" s="7"/>
       <c r="C81" s="24"/>
       <c r="D81" s="24"/>
@@ -10243,7 +10243,7 @@
       <c r="G81" s="27"/>
     </row>
     <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="353"/>
+      <c r="A82" s="363"/>
       <c r="B82" s="7"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24"/>
@@ -10252,7 +10252,7 @@
       <c r="G82" s="27"/>
     </row>
     <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="353"/>
+      <c r="A83" s="363"/>
       <c r="B83" s="7"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24"/>
@@ -10261,7 +10261,7 @@
       <c r="G83" s="27"/>
     </row>
     <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="353"/>
+      <c r="A84" s="363"/>
       <c r="B84" s="7"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24"/>
@@ -10270,7 +10270,7 @@
       <c r="G84" s="27"/>
     </row>
     <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="353"/>
+      <c r="A85" s="363"/>
       <c r="B85" s="7"/>
       <c r="C85" s="24"/>
       <c r="D85" s="24"/>
@@ -10288,7 +10288,7 @@
       <c r="G86" s="27"/>
     </row>
     <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="353"/>
+      <c r="A87" s="363"/>
       <c r="B87" s="7"/>
       <c r="C87" s="24"/>
       <c r="D87" s="24"/>
@@ -10297,7 +10297,7 @@
       <c r="G87" s="27"/>
     </row>
     <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="353"/>
+      <c r="A88" s="363"/>
       <c r="B88" s="7"/>
       <c r="C88" s="24"/>
       <c r="D88" s="24"/>
@@ -10635,6 +10635,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A16:F38"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
@@ -10659,24 +10662,24 @@
       <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:6" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="437" t="s">
+      <c r="A17" s="337" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="438" t="s">
+      <c r="B17" s="338" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="438" t="s">
+      <c r="C17" s="338" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="439" t="s">
+      <c r="D17" s="339" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="439" t="s">
+      <c r="E17" s="339" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="440" t="s">
+      <c r="A18" s="374" t="s">
         <v>119</v>
       </c>
       <c r="B18" s="85" t="s">
@@ -10693,7 +10696,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="440"/>
+      <c r="A19" s="374"/>
       <c r="B19" s="36" t="s">
         <v>152</v>
       </c>
@@ -10708,7 +10711,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="440"/>
+      <c r="A20" s="374"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36" t="s">
         <v>124</v>
@@ -10717,7 +10720,7 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="440"/>
+      <c r="A21" s="374"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36" t="s">
         <v>123</v>
@@ -10726,7 +10729,7 @@
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="440"/>
+      <c r="A22" s="374"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36" t="s">
         <v>125</v>
@@ -10773,7 +10776,7 @@
       <c r="D26" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="427" t="s">
+      <c r="E26" s="330" t="s">
         <v>493</v>
       </c>
       <c r="F26" t="s">
@@ -10781,7 +10784,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="363" t="s">
+      <c r="A27" s="373" t="s">
         <v>126</v>
       </c>
       <c r="B27" s="85">
@@ -10798,7 +10801,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="363"/>
+      <c r="A28" s="373"/>
       <c r="B28" s="85">
         <v>2</v>
       </c>
@@ -10813,59 +10816,59 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="434" t="s">
+      <c r="A29" s="375" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="428">
+      <c r="B29" s="331">
         <v>1</v>
       </c>
-      <c r="C29" s="429" t="s">
+      <c r="C29" s="332" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="430" t="s">
+      <c r="D29" s="333" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="435"/>
-      <c r="B30" s="428">
+      <c r="A30" s="376"/>
+      <c r="B30" s="331">
         <v>2</v>
       </c>
-      <c r="C30" s="431" t="s">
+      <c r="C30" s="334" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="430" t="s">
+      <c r="D30" s="333" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="435"/>
-      <c r="B31" s="428">
+      <c r="A31" s="376"/>
+      <c r="B31" s="331">
         <v>3</v>
       </c>
-      <c r="C31" s="428"/>
-      <c r="D31" s="430" t="s">
+      <c r="C31" s="331"/>
+      <c r="D31" s="333" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="435"/>
-      <c r="B32" s="428">
+      <c r="A32" s="376"/>
+      <c r="B32" s="331">
         <v>4</v>
       </c>
-      <c r="C32" s="433">
+      <c r="C32" s="336">
         <v>-10</v>
       </c>
-      <c r="D32" s="430" t="s">
+      <c r="D32" s="333" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="435"/>
-      <c r="B33" s="428">
+      <c r="A33" s="376"/>
+      <c r="B33" s="331">
         <v>5</v>
       </c>
-      <c r="C33" s="433">
+      <c r="C33" s="336">
         <v>1</v>
       </c>
       <c r="D33" s="87" t="b">
@@ -10876,11 +10879,11 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="436"/>
-      <c r="B34" s="428">
+      <c r="A34" s="377"/>
+      <c r="B34" s="331">
         <v>6</v>
       </c>
-      <c r="C34" s="433">
+      <c r="C34" s="336">
         <v>2</v>
       </c>
       <c r="D34" s="87" t="b">
@@ -10891,7 +10894,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="432" t="s">
+      <c r="A35" s="335" t="s">
         <v>137</v>
       </c>
       <c r="B35" s="85">
@@ -10932,7 +10935,7 @@
       <c r="C37" s="86">
         <v>-1</v>
       </c>
-      <c r="D37" s="430" t="s">
+      <c r="D37" s="333" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10944,7 +10947,7 @@
       <c r="C38" s="6">
         <v>1001</v>
       </c>
-      <c r="D38" s="430" t="s">
+      <c r="D38" s="333" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10961,9 +10964,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A25:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11004,7 +11010,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="367" t="s">
+      <c r="A27" s="381" t="s">
         <v>116</v>
       </c>
       <c r="B27" s="89" t="s">
@@ -11019,7 +11025,7 @@
       <c r="E27" s="43"/>
     </row>
     <row r="28" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="367"/>
+      <c r="A28" s="381"/>
       <c r="B28" s="89" t="s">
         <v>159</v>
       </c>
@@ -11032,7 +11038,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="367"/>
+      <c r="A29" s="381"/>
       <c r="B29" s="89" t="s">
         <v>161</v>
       </c>
@@ -11043,7 +11049,7 @@
       <c r="E29" s="43"/>
     </row>
     <row r="30" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="367"/>
+      <c r="A30" s="381"/>
       <c r="B30" s="89"/>
       <c r="C30" s="89" t="s">
         <v>163</v>
@@ -11058,29 +11064,29 @@
       <c r="D35" s="46"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="368" t="s">
+      <c r="A36" s="382" t="s">
         <v>164</v>
       </c>
-      <c r="B36" s="368" t="s">
+      <c r="B36" s="382" t="s">
         <v>113</v>
       </c>
       <c r="C36" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="D36" s="368" t="s">
+      <c r="D36" s="382" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="369"/>
-      <c r="B37" s="369"/>
+      <c r="A37" s="383"/>
+      <c r="B37" s="383"/>
       <c r="C37" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="369"/>
+      <c r="D37" s="383"/>
     </row>
     <row r="38" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A38" s="364" t="s">
+      <c r="A38" s="378" t="s">
         <v>167</v>
       </c>
       <c r="B38" s="91">
@@ -11094,7 +11100,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A39" s="365"/>
+      <c r="A39" s="379"/>
       <c r="B39" s="91">
         <v>2</v>
       </c>
@@ -11106,7 +11112,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="366"/>
+      <c r="A40" s="380"/>
       <c r="B40" s="91">
         <v>3</v>
       </c>
@@ -11118,7 +11124,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A41" s="364" t="s">
+      <c r="A41" s="378" t="s">
         <v>168</v>
       </c>
       <c r="B41" s="91">
@@ -11132,7 +11138,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A42" s="365"/>
+      <c r="A42" s="379"/>
       <c r="B42" s="91">
         <v>5</v>
       </c>
@@ -11144,7 +11150,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A43" s="365"/>
+      <c r="A43" s="379"/>
       <c r="B43" s="91">
         <v>6</v>
       </c>
@@ -11156,7 +11162,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A44" s="366"/>
+      <c r="A44" s="380"/>
       <c r="B44" s="91">
         <v>7</v>
       </c>
@@ -11205,10 +11211,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A17:F36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11238,10 +11247,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="372" t="s">
+      <c r="A18" s="386" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="374" t="s">
+      <c r="B18" s="388" t="s">
         <v>176</v>
       </c>
       <c r="C18" s="104" t="s">
@@ -11251,8 +11260,8 @@
       <c r="E18" s="63"/>
     </row>
     <row r="19" spans="1:6" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="373"/>
-      <c r="B19" s="375"/>
+      <c r="A19" s="387"/>
+      <c r="B19" s="389"/>
       <c r="C19" s="6" t="s">
         <v>178</v>
       </c>
@@ -11260,8 +11269,8 @@
       <c r="E19" s="102"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="373"/>
-      <c r="B20" s="375"/>
+      <c r="A20" s="387"/>
+      <c r="B20" s="389"/>
       <c r="C20" s="6" t="s">
         <v>177</v>
       </c>
@@ -11269,8 +11278,8 @@
       <c r="E20" s="103"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="373"/>
-      <c r="B21" s="375"/>
+      <c r="A21" s="387"/>
+      <c r="B21" s="389"/>
       <c r="C21" s="267" t="s">
         <v>170</v>
       </c>
@@ -11281,8 +11290,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="373"/>
-      <c r="B22" s="375"/>
+      <c r="A22" s="387"/>
+      <c r="B22" s="389"/>
       <c r="C22" s="106" t="s">
         <v>132</v>
       </c>
@@ -11295,27 +11304,27 @@
       <c r="D23" s="93"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="377" t="s">
+      <c r="A24" s="391" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="370" t="s">
+      <c r="B24" s="384" t="s">
         <v>113</v>
       </c>
       <c r="C24" s="109"/>
-      <c r="D24" s="370" t="s">
+      <c r="D24" s="384" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="377"/>
-      <c r="B25" s="370"/>
+      <c r="A25" s="391"/>
+      <c r="B25" s="384"/>
       <c r="C25" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="D25" s="370"/>
+      <c r="D25" s="384"/>
     </row>
     <row r="26" spans="1:6" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="371" t="s">
+      <c r="A26" s="385" t="s">
         <v>167</v>
       </c>
       <c r="B26" s="49">
@@ -11329,7 +11338,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="371"/>
+      <c r="A27" s="385"/>
       <c r="B27" s="49">
         <v>2</v>
       </c>
@@ -11341,7 +11350,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="372" t="s">
+      <c r="A28" s="386" t="s">
         <v>168</v>
       </c>
       <c r="B28" s="49">
@@ -11355,7 +11364,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="373"/>
+      <c r="A29" s="387"/>
       <c r="B29" s="49">
         <v>4</v>
       </c>
@@ -11367,7 +11376,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="373"/>
+      <c r="A30" s="387"/>
       <c r="B30" s="49">
         <v>5</v>
       </c>
@@ -11379,7 +11388,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="373"/>
+      <c r="A31" s="387"/>
       <c r="B31" s="49">
         <v>6</v>
       </c>
@@ -11391,7 +11400,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="376"/>
+      <c r="A32" s="390"/>
       <c r="B32" s="49">
         <v>7</v>
       </c>
@@ -11688,17 +11697,17 @@
       <c r="H24" s="136"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="379" t="s">
+      <c r="A25" s="393" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="379" t="s">
+      <c r="B25" s="393" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="381" t="s">
+      <c r="C25" s="395" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="382"/>
-      <c r="E25" s="383"/>
+      <c r="D25" s="396"/>
+      <c r="E25" s="397"/>
       <c r="F25" s="124" t="s">
         <v>114</v>
       </c>
@@ -11706,8 +11715,8 @@
       <c r="H25" s="136"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="380"/>
-      <c r="B26" s="380"/>
+      <c r="A26" s="394"/>
+      <c r="B26" s="394"/>
       <c r="C26" s="125" t="s">
         <v>181</v>
       </c>
@@ -12070,18 +12079,18 @@
       <c r="H47" s="136"/>
     </row>
     <row r="48" spans="1:8" s="284" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="384"/>
-      <c r="B48" s="384"/>
-      <c r="C48" s="378"/>
-      <c r="D48" s="378"/>
-      <c r="E48" s="378"/>
+      <c r="A48" s="398"/>
+      <c r="B48" s="398"/>
+      <c r="C48" s="392"/>
+      <c r="D48" s="392"/>
+      <c r="E48" s="392"/>
       <c r="F48" s="11"/>
       <c r="G48" s="302"/>
       <c r="H48" s="283"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="384"/>
-      <c r="B49" s="384"/>
+      <c r="A49" s="398"/>
+      <c r="B49" s="398"/>
       <c r="C49" s="73"/>
       <c r="D49" s="73"/>
       <c r="E49" s="73"/>
@@ -12355,7 +12364,7 @@
       <c r="C26" s="266"/>
     </row>
     <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="385" t="s">
+      <c r="A27" s="399" t="s">
         <v>191</v>
       </c>
       <c r="B27" s="121" t="s">
@@ -12364,7 +12373,7 @@
       <c r="C27" s="266"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="385"/>
+      <c r="A28" s="399"/>
       <c r="B28" s="121" t="s">
         <v>199</v>
       </c>
@@ -12923,30 +12932,30 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="395" t="s">
+      <c r="A46" s="401" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="397" t="s">
+      <c r="B46" s="403" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="399" t="s">
+      <c r="C46" s="405" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="400"/>
-      <c r="E46" s="401" t="s">
+      <c r="D46" s="406"/>
+      <c r="E46" s="407" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="396"/>
-      <c r="B47" s="398"/>
+      <c r="A47" s="402"/>
+      <c r="B47" s="404"/>
       <c r="C47" s="251" t="s">
         <v>212</v>
       </c>
       <c r="D47" s="313" t="s">
         <v>215</v>
       </c>
-      <c r="E47" s="402"/>
+      <c r="E47" s="408"/>
     </row>
     <row r="48" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="252" t="s">
@@ -13102,9 +13111,9 @@
       </c>
       <c r="I56" s="323"/>
       <c r="J56" s="321"/>
-      <c r="K56" s="394"/>
-      <c r="L56" s="394"/>
-      <c r="M56" s="394"/>
+      <c r="K56" s="400"/>
+      <c r="L56" s="400"/>
+      <c r="M56" s="400"/>
     </row>
     <row r="57" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="G57" s="321"/>
@@ -13115,7 +13124,7 @@
         <v>1484</v>
       </c>
       <c r="J57" s="321"/>
-      <c r="K57" s="394"/>
+      <c r="K57" s="400"/>
       <c r="L57" s="325"/>
       <c r="M57" s="325"/>
     </row>
@@ -13334,30 +13343,30 @@
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="386" t="s">
+      <c r="A82" s="409" t="s">
         <v>112</v>
       </c>
-      <c r="B82" s="388" t="s">
+      <c r="B82" s="411" t="s">
         <v>113</v>
       </c>
-      <c r="C82" s="390" t="s">
+      <c r="C82" s="413" t="s">
         <v>29</v>
       </c>
-      <c r="D82" s="391"/>
-      <c r="E82" s="392" t="s">
+      <c r="D82" s="414"/>
+      <c r="E82" s="415" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="387"/>
-      <c r="B83" s="389"/>
+      <c r="A83" s="410"/>
+      <c r="B83" s="412"/>
       <c r="C83" s="316" t="s">
         <v>212</v>
       </c>
       <c r="D83" s="191" t="s">
         <v>215</v>
       </c>
-      <c r="E83" s="393"/>
+      <c r="E83" s="416"/>
       <c r="G83" s="316" t="s">
         <v>212</v>
       </c>
@@ -13563,16 +13572,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="K56:K57"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="K56:K57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13667,24 +13676,24 @@
       <c r="E23" s="160"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="403" t="s">
+      <c r="A24" s="417" t="s">
         <v>223</v>
       </c>
-      <c r="B24" s="404" t="s">
+      <c r="B24" s="418" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="404" t="s">
+      <c r="C24" s="418" t="s">
         <v>224</v>
       </c>
-      <c r="D24" s="405" t="s">
+      <c r="D24" s="419" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="405"/>
+      <c r="E24" s="419"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="403"/>
-      <c r="B25" s="404"/>
-      <c r="C25" s="404"/>
+      <c r="A25" s="417"/>
+      <c r="B25" s="418"/>
+      <c r="C25" s="418"/>
       <c r="D25" s="163" t="s">
         <v>225</v>
       </c>
@@ -13710,7 +13719,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="406" t="s">
+      <c r="A27" s="420" t="s">
         <v>115</v>
       </c>
       <c r="B27" s="162">
@@ -13727,7 +13736,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="407"/>
+      <c r="A28" s="421"/>
       <c r="B28" s="162">
         <v>2</v>
       </c>
@@ -13742,7 +13751,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="407"/>
+      <c r="A29" s="421"/>
       <c r="B29" s="162">
         <v>3</v>
       </c>
@@ -13757,7 +13766,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="407"/>
+      <c r="A30" s="421"/>
       <c r="B30" s="162">
         <v>4</v>
       </c>
@@ -13770,7 +13779,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="408"/>
+      <c r="A31" s="422"/>
       <c r="B31" s="165">
         <v>5</v>
       </c>
